--- a/outputs/Excel/indef2020Analyze.xlsx
+++ b/outputs/Excel/indef2020Analyze.xlsx
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>↑出院患者手术占比▲</v>
+        <v>↑出院患者手术占比</v>
       </c>
       <c r="B2" t="str">
         <v>功能定位</v>
@@ -433,10 +433,10 @@
         <v>✕</v>
       </c>
       <c r="F2" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G2" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H2" t="str">
         <v>百分比（%）</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>↑出院患者微创手术占比▲</v>
+        <v>↑出院患者微创手术占比</v>
       </c>
       <c r="B3" t="str">
         <v>功能定位</v>
@@ -459,10 +459,10 @@
         <v>✕</v>
       </c>
       <c r="F3" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G3" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H3" t="str">
         <v>百分比（%）</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>↑出院患者三级手术占比▲</v>
+        <v>↑出院患者三级手术占比</v>
       </c>
       <c r="B4" t="str">
         <v>功能定位</v>
@@ -488,7 +488,7 @@
         <v>✕</v>
       </c>
       <c r="G4" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H4" t="str">
         <v>百分比（%）</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>↓手术患者并发症发生率▲</v>
+        <v>↓手术患者并发症发生率</v>
       </c>
       <c r="B5" t="str">
         <v>质量安全</v>
@@ -508,13 +508,13 @@
         <v>病案首页</v>
       </c>
       <c r="E5" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F5" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G5" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H5" t="str">
         <v>百分比（%）</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>↓低风险组病例死亡率▲</v>
+        <v>↓低风险组病例死亡率</v>
       </c>
       <c r="B6" t="str">
         <v>质量安全</v>
@@ -537,10 +537,10 @@
         <v>✕</v>
       </c>
       <c r="F6" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G6" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H6" t="str">
         <v>百分比（%）</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>↓抗菌药物使用强度（DDDs）▲</v>
+        <v>↓抗菌药物使用强度（DDDs）</v>
       </c>
       <c r="B7" t="str">
         <v>合理用药</v>
@@ -560,13 +560,13 @@
         <v>医院填报</v>
       </c>
       <c r="E7" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F7" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G7" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H7" t="str">
         <v>DDD</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>↑电子病历应用功能水平分级▲</v>
+        <v>↑电子病历应用功能水平分级</v>
       </c>
       <c r="B12" t="str">
         <v>医疗服务</v>
@@ -690,13 +690,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E12" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F12" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G12" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H12" t="str">
         <v>级别</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>平均住院日▲</v>
+        <v>平均住院日</v>
       </c>
       <c r="B14" t="str">
         <v>医疗服务</v>
@@ -748,7 +748,7 @@
         <v>✕</v>
       </c>
       <c r="G14" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H14" t="str">
         <v>天</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>医疗盈余率(收支结余)▲</v>
+        <v>医疗盈余率(收支结余)</v>
       </c>
       <c r="B15" t="str">
         <v>收支结构</v>
@@ -768,13 +768,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E15" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F15" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G15" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H15" t="str">
         <v>百分比（%）</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>资产负债率▲</v>
+        <v>资产负债率</v>
       </c>
       <c r="B16" t="str">
         <v>收支结构</v>
@@ -794,13 +794,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E16" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F16" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G16" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H16" t="str">
         <v>百分比（%）</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>↑人员经费占比(人员支出占业务支出比重)▲</v>
+        <v>↑人员经费占比(人员支出占业务支出比重)</v>
       </c>
       <c r="B17" t="str">
         <v>收支结构</v>
@@ -820,13 +820,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E17" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F17" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G17" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H17" t="str">
         <v>百分比（%）</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>↓万元收入能耗占比(~能耗支出)▲</v>
+        <v>↓万元收入能耗占比(~能耗支出)</v>
       </c>
       <c r="B18" t="str">
         <v>收支结构</v>
@@ -846,13 +846,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E18" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F18" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G18" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H18" t="str">
         <v>吨标煤/万元</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>↑医疗服务收入（不含药品、耗材、检查检验收入）占医疗收入比例▲</v>
+        <v>↑医疗服务收入（不含药品、耗材、检查检验收入）占医疗收入比例</v>
       </c>
       <c r="B20" t="str">
         <v>收支结构</v>
@@ -898,13 +898,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E20" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F20" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G20" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H20" t="str">
         <v>百分比（%）</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>医疗收入增幅▲</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="B21" t="str">
         <v>费用控制</v>
@@ -930,7 +930,7 @@
         <v>✓✕</v>
       </c>
       <c r="G21" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H21" t="str">
         <v>百分比（%）</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>↓次均费用增幅▲</v>
+        <v>↓次均费用增幅</v>
       </c>
       <c r="B22" t="str">
         <v>费用控制</v>
@@ -956,7 +956,7 @@
         <v>✕</v>
       </c>
       <c r="G22" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H22" t="str">
         <v>百分比（%）</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>↓次均药品费用增幅▲</v>
+        <v>↓次均药品费用增幅</v>
       </c>
       <c r="B23" t="str">
         <v>费用控制</v>
@@ -982,7 +982,7 @@
         <v>✕</v>
       </c>
       <c r="G23" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H23" t="str">
         <v>百分比（%）</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>医护比▲</v>
+        <v>医护比</v>
       </c>
       <c r="B24" t="str">
         <v>人员结构</v>
@@ -1002,13 +1002,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E24" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F24" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G24" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H24" t="str">
         <v>比值（1:X）</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>↑麻醉、儿科、重症、病理、中医医师占比▲</v>
+        <v>↑麻醉、儿科、重症、病理、中医医师占比</v>
       </c>
       <c r="B25" t="str">
         <v>人员结构</v>
@@ -1031,10 +1031,10 @@
         <v>✕</v>
       </c>
       <c r="F25" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G25" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H25" t="str">
         <v>百分比（%）</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>专科能力▲</v>
+        <v>专科能力</v>
       </c>
       <c r="B27" t="str">
         <v>学科建设</v>
@@ -1086,7 +1086,7 @@
         <v>✕</v>
       </c>
       <c r="G27" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H27" t="str">
         <v>人、天、元、%</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>↑患者满意度▲</v>
+        <v>↑患者满意度</v>
       </c>
       <c r="B28" t="str">
         <v>患者满意度</v>
@@ -1112,7 +1112,7 @@
         <v>✕</v>
       </c>
       <c r="G28" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H28" t="str">
         <v>分值</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>↑医务人员满意度▲</v>
+        <v>↑医务人员满意度</v>
       </c>
       <c r="B29" t="str">
         <v>医务人员满意度</v>
@@ -1132,13 +1132,13 @@
         <v>国家公立医院满意度调查平台</v>
       </c>
       <c r="E29" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F29" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G29" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="H29" t="str">
         <v>分值</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>↑出院患者四级手术比例▲</v>
+        <v>↑出院患者四级手术比例</v>
       </c>
       <c r="B33" t="str">
         <v>功能定位</v>
@@ -1239,7 +1239,7 @@
         <v>✕</v>
       </c>
       <c r="F33" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G33" t="str">
         <v>✕</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>↓I类切口手术部位感染率▲</v>
+        <v>↓I类切口手术部位感染率</v>
       </c>
       <c r="B35" t="str">
         <v>质量安全</v>
@@ -1288,10 +1288,10 @@
         <v>病案首页</v>
       </c>
       <c r="E35" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F35" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G35" t="str">
         <v>✕</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>↓单病种质量控制▲</v>
+        <v>↓单病种质量控制</v>
       </c>
       <c r="B36" t="str">
         <v>质量安全</v>
@@ -1317,7 +1317,7 @@
         <v>✕</v>
       </c>
       <c r="F36" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G36" t="str">
         <v>✕</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>↑通过国家室间质量评价的临床检验项目数▲</v>
+        <v>↑通过国家室间质量评价的临床检验项目数</v>
       </c>
       <c r="B39" t="str">
         <v>质量安全</v>
@@ -1392,10 +1392,10 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E39" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F39" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G39" t="str">
         <v>✕</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>↓门诊次均费用增幅▲</v>
+        <v>↓门诊次均费用增幅</v>
       </c>
       <c r="B54" t="str">
         <v>费用控制</v>
@@ -1782,10 +1782,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E54" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F54" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G54" t="str">
         <v>✕</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>↓门诊次均药品费用增幅▲</v>
+        <v>↓门诊次均药品费用增幅</v>
       </c>
       <c r="B55" t="str">
         <v>费用控制</v>
@@ -1808,10 +1808,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E55" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F55" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G55" t="str">
         <v>✕</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>↓住院次均费用增幅▲</v>
+        <v>↓住院次均费用增幅</v>
       </c>
       <c r="B56" t="str">
         <v>费用控制</v>
@@ -1834,10 +1834,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E56" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F56" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G56" t="str">
         <v>✕</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>↓住院次均药品费用增幅▲</v>
+        <v>↓住院次均药品费用增幅</v>
       </c>
       <c r="B57" t="str">
         <v>费用控制</v>
@@ -1860,10 +1860,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E57" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F57" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G57" t="str">
         <v>✕</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>↑医院住院医师首次参加医师资格考试通过率▲</v>
+        <v>↑医院住院医师首次参加医师资格考试通过率</v>
       </c>
       <c r="B62" t="str">
         <v>人才培养</v>
@@ -1990,10 +1990,10 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E62" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F62" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G62" t="str">
         <v>✕</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>↑每百名卫生技术人员科研项目经费▲</v>
+        <v>↑每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="B64" t="str">
         <v>学科建设</v>
@@ -2042,10 +2042,10 @@
         <v>医院填报</v>
       </c>
       <c r="E64" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F64" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G64" t="str">
         <v>✕</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>↑门诊患者满意度▲</v>
+        <v>↑门诊患者满意度</v>
       </c>
       <c r="B67" t="str">
         <v>患者满意度</v>
@@ -2120,10 +2120,10 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E67" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F67" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G67" t="str">
         <v>✕</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>↑住院患者满意度▲</v>
+        <v>↑住院患者满意度</v>
       </c>
       <c r="B68" t="str">
         <v>患者满意度</v>
@@ -2146,10 +2146,10 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E68" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F68" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="G68" t="str">
         <v>✕</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>↑门诊中药处方比例▲</v>
+        <v>↑门诊中药处方比例</v>
       </c>
       <c r="B69" t="str">
         <v>功能定位</v>
@@ -2172,7 +2172,7 @@
         <v>医院填报</v>
       </c>
       <c r="E69" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F69" t="str">
         <v>✕</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>↑门诊散装中药饮片和小包装中药饮片处方比例▲</v>
+        <v>↑门诊散装中药饮片和小包装中药饮片处方比例</v>
       </c>
       <c r="B70" t="str">
         <v>功能定位</v>
@@ -2198,7 +2198,7 @@
         <v>医院填报</v>
       </c>
       <c r="E70" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F70" t="str">
         <v>✕</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>↑门诊患者中药饮片使用率▲</v>
+        <v>↑门诊患者中药饮片使用率</v>
       </c>
       <c r="B71" t="str">
         <v>功能定位</v>
@@ -2224,7 +2224,7 @@
         <v>医院填报</v>
       </c>
       <c r="E71" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F71" t="str">
         <v>✕</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>↑出院患者中药饮片使用率▲</v>
+        <v>↑出院患者中药饮片使用率</v>
       </c>
       <c r="B72" t="str">
         <v>功能定位</v>
@@ -2250,7 +2250,7 @@
         <v>中医病案首页</v>
       </c>
       <c r="E72" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F72" t="str">
         <v>✕</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>↑门诊患者使用中医非药物疗法比例▲</v>
+        <v>↑门诊患者使用中医非药物疗法比例</v>
       </c>
       <c r="B73" t="str">
         <v>功能定位</v>
@@ -2276,7 +2276,7 @@
         <v>医院填报</v>
       </c>
       <c r="E73" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F73" t="str">
         <v>✕</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>↑出院患者使用中医非药物疗法比例▲</v>
+        <v>↑出院患者使用中医非药物疗法比例</v>
       </c>
       <c r="B74" t="str">
         <v>功能定位</v>
@@ -2302,7 +2302,7 @@
         <v>中医病案首页</v>
       </c>
       <c r="E74" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F74" t="str">
         <v>✕</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>↑以中医为主治疗的出院患者比例▲</v>
+        <v>↑以中医为主治疗的出院患者比例</v>
       </c>
       <c r="B75" t="str">
         <v>功能定位</v>
@@ -2328,7 +2328,7 @@
         <v>中医病案首页</v>
       </c>
       <c r="E75" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F75" t="str">
         <v>✕</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>↑中药收入占药品收入比例▲</v>
+        <v>↑中药收入占药品收入比例</v>
       </c>
       <c r="B81" t="str">
         <v>收支结构</v>
@@ -2484,7 +2484,7 @@
         <v>财务年报表</v>
       </c>
       <c r="E81" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F81" t="str">
         <v>✕</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>↑中药饮片收入占药品收入比例▲</v>
+        <v>↑中药饮片收入占药品收入比例</v>
       </c>
       <c r="B82" t="str">
         <v>收支结构</v>
@@ -2510,7 +2510,7 @@
         <v>财务年报表</v>
       </c>
       <c r="E82" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F82" t="str">
         <v>✕</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>↑医疗机构中药制剂收入占药品收入比例▲</v>
+        <v>↑医疗机构中药制剂收入占药品收入比例</v>
       </c>
       <c r="B83" t="str">
         <v>收支结构</v>
@@ -2536,7 +2536,7 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E83" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F83" t="str">
         <v>✕</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>↑门诊中医医疗服务项目收入占门诊医疗收入比例▲</v>
+        <v>↑门诊中医医疗服务项目收入占门诊医疗收入比例</v>
       </c>
       <c r="B84" t="str">
         <v>收支结构</v>
@@ -2562,7 +2562,7 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E84" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F84" t="str">
         <v>✕</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>↑住院中医医疗服务项目收入占住院医疗收入比例▲</v>
+        <v>↑住院中医医疗服务项目收入占住院医疗收入比例</v>
       </c>
       <c r="B85" t="str">
         <v>收支结构</v>
@@ -2588,7 +2588,7 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E85" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F85" t="str">
         <v>✕</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>↑中医类别执业医师（含执业助理医师）占执业医师总数比例▲</v>
+        <v>↑中医类别执业医师（含执业助理医师）占执业医师总数比例</v>
       </c>
       <c r="B86" t="str">
         <v>人员结构</v>
@@ -2614,7 +2614,7 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E86" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F86" t="str">
         <v>✕</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>↑每百名卫生技术人员中医药科研项目经费▲</v>
+        <v>↑每百名卫生技术人员中医药科研项目经费</v>
       </c>
       <c r="B89" t="str">
         <v>学科建设</v>
@@ -2692,7 +2692,7 @@
         <v>医院填报</v>
       </c>
       <c r="E89" t="str">
-        <v>✓</v>
+        <v>✓✕</v>
       </c>
       <c r="F89" t="str">
         <v>✕</v>

--- a/outputs/Excel/indef2020Analyze.xlsx
+++ b/outputs/Excel/indef2020Analyze.xlsx
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>↑出院患者手术占比</v>
+        <v>↑出院患者手术占比▲</v>
       </c>
       <c r="B2" t="str">
         <v>功能定位</v>
@@ -433,10 +433,10 @@
         <v>✕</v>
       </c>
       <c r="F2" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G2" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H2" t="str">
         <v>百分比（%）</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>↑出院患者微创手术占比</v>
+        <v>↑出院患者微创手术占比▲</v>
       </c>
       <c r="B3" t="str">
         <v>功能定位</v>
@@ -459,10 +459,10 @@
         <v>✕</v>
       </c>
       <c r="F3" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G3" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H3" t="str">
         <v>百分比（%）</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>↑出院患者三级手术占比</v>
+        <v>↑出院患者三级手术占比▲</v>
       </c>
       <c r="B4" t="str">
         <v>功能定位</v>
@@ -488,7 +488,7 @@
         <v>✕</v>
       </c>
       <c r="G4" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H4" t="str">
         <v>百分比（%）</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>↓手术患者并发症发生率</v>
+        <v>↓手术患者并发症发生率▲</v>
       </c>
       <c r="B5" t="str">
         <v>质量安全</v>
@@ -508,13 +508,13 @@
         <v>病案首页</v>
       </c>
       <c r="E5" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F5" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G5" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H5" t="str">
         <v>百分比（%）</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>↓低风险组病例死亡率</v>
+        <v>↓低风险组病例死亡率▲</v>
       </c>
       <c r="B6" t="str">
         <v>质量安全</v>
@@ -537,10 +537,10 @@
         <v>✕</v>
       </c>
       <c r="F6" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G6" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H6" t="str">
         <v>百分比（%）</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>↓抗菌药物使用强度（DDDs）</v>
+        <v>↓抗菌药物使用强度（DDDs）▲</v>
       </c>
       <c r="B7" t="str">
         <v>合理用药</v>
@@ -560,13 +560,13 @@
         <v>医院填报</v>
       </c>
       <c r="E7" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F7" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G7" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H7" t="str">
         <v>DDD</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>↑电子病历应用功能水平分级</v>
+        <v>↑电子病历应用功能水平分级▲</v>
       </c>
       <c r="B12" t="str">
         <v>医疗服务</v>
@@ -690,13 +690,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E12" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F12" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G12" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H12" t="str">
         <v>级别</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>平均住院日</v>
+        <v>平均住院日▲</v>
       </c>
       <c r="B14" t="str">
         <v>医疗服务</v>
@@ -748,7 +748,7 @@
         <v>✕</v>
       </c>
       <c r="G14" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H14" t="str">
         <v>天</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>医疗盈余率(收支结余)</v>
+        <v>医疗盈余率(收支结余)▲</v>
       </c>
       <c r="B15" t="str">
         <v>收支结构</v>
@@ -768,13 +768,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E15" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F15" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G15" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H15" t="str">
         <v>百分比（%）</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>资产负债率</v>
+        <v>资产负债率▲</v>
       </c>
       <c r="B16" t="str">
         <v>收支结构</v>
@@ -794,13 +794,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E16" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F16" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G16" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H16" t="str">
         <v>百分比（%）</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>↑人员经费占比(人员支出占业务支出比重)</v>
+        <v>↑人员经费占比(人员支出占业务支出比重)▲</v>
       </c>
       <c r="B17" t="str">
         <v>收支结构</v>
@@ -820,13 +820,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E17" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F17" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G17" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H17" t="str">
         <v>百分比（%）</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>↓万元收入能耗占比(~能耗支出)</v>
+        <v>↓万元收入能耗占比(~能耗支出)▲</v>
       </c>
       <c r="B18" t="str">
         <v>收支结构</v>
@@ -846,13 +846,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E18" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F18" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G18" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H18" t="str">
         <v>吨标煤/万元</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>↑医疗服务收入（不含药品、耗材、检查检验收入）占医疗收入比例</v>
+        <v>↑医疗服务收入（不含药品、耗材、检查检验收入）占医疗收入比例▲</v>
       </c>
       <c r="B20" t="str">
         <v>收支结构</v>
@@ -898,13 +898,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E20" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F20" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G20" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H20" t="str">
         <v>百分比（%）</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>医疗收入增幅</v>
+        <v>医疗收入增幅▲</v>
       </c>
       <c r="B21" t="str">
         <v>费用控制</v>
@@ -930,7 +930,7 @@
         <v>✓✕</v>
       </c>
       <c r="G21" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H21" t="str">
         <v>百分比（%）</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>↓次均费用增幅</v>
+        <v>↓次均费用增幅▲</v>
       </c>
       <c r="B22" t="str">
         <v>费用控制</v>
@@ -956,7 +956,7 @@
         <v>✕</v>
       </c>
       <c r="G22" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H22" t="str">
         <v>百分比（%）</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>↓次均药品费用增幅</v>
+        <v>↓次均药品费用增幅▲</v>
       </c>
       <c r="B23" t="str">
         <v>费用控制</v>
@@ -982,7 +982,7 @@
         <v>✕</v>
       </c>
       <c r="G23" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H23" t="str">
         <v>百分比（%）</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>医护比</v>
+        <v>医护比▲</v>
       </c>
       <c r="B24" t="str">
         <v>人员结构</v>
@@ -1002,13 +1002,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E24" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F24" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G24" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H24" t="str">
         <v>比值（1:X）</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>↑麻醉、儿科、重症、病理、中医医师占比</v>
+        <v>↑麻醉、儿科、重症、病理、中医医师占比▲</v>
       </c>
       <c r="B25" t="str">
         <v>人员结构</v>
@@ -1031,10 +1031,10 @@
         <v>✕</v>
       </c>
       <c r="F25" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G25" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H25" t="str">
         <v>百分比（%）</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>专科能力</v>
+        <v>专科能力▲</v>
       </c>
       <c r="B27" t="str">
         <v>学科建设</v>
@@ -1086,7 +1086,7 @@
         <v>✕</v>
       </c>
       <c r="G27" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H27" t="str">
         <v>人、天、元、%</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>↑患者满意度</v>
+        <v>↑患者满意度▲</v>
       </c>
       <c r="B28" t="str">
         <v>患者满意度</v>
@@ -1112,7 +1112,7 @@
         <v>✕</v>
       </c>
       <c r="G28" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H28" t="str">
         <v>分值</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>↑医务人员满意度</v>
+        <v>↑医务人员满意度▲</v>
       </c>
       <c r="B29" t="str">
         <v>医务人员满意度</v>
@@ -1132,13 +1132,13 @@
         <v>国家公立医院满意度调查平台</v>
       </c>
       <c r="E29" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F29" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G29" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="H29" t="str">
         <v>分值</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>↑出院患者四级手术比例</v>
+        <v>↑出院患者四级手术比例▲</v>
       </c>
       <c r="B33" t="str">
         <v>功能定位</v>
@@ -1239,7 +1239,7 @@
         <v>✕</v>
       </c>
       <c r="F33" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G33" t="str">
         <v>✕</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>↓I类切口手术部位感染率</v>
+        <v>↓I类切口手术部位感染率▲</v>
       </c>
       <c r="B35" t="str">
         <v>质量安全</v>
@@ -1288,10 +1288,10 @@
         <v>病案首页</v>
       </c>
       <c r="E35" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F35" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G35" t="str">
         <v>✕</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>↓单病种质量控制</v>
+        <v>↓单病种质量控制▲</v>
       </c>
       <c r="B36" t="str">
         <v>质量安全</v>
@@ -1317,7 +1317,7 @@
         <v>✕</v>
       </c>
       <c r="F36" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G36" t="str">
         <v>✕</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>↑通过国家室间质量评价的临床检验项目数</v>
+        <v>↑通过国家室间质量评价的临床检验项目数▲</v>
       </c>
       <c r="B39" t="str">
         <v>质量安全</v>
@@ -1392,10 +1392,10 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E39" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F39" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G39" t="str">
         <v>✕</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>↓门诊次均费用增幅</v>
+        <v>↓门诊次均费用增幅▲</v>
       </c>
       <c r="B54" t="str">
         <v>费用控制</v>
@@ -1782,10 +1782,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E54" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F54" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G54" t="str">
         <v>✕</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>↓门诊次均药品费用增幅</v>
+        <v>↓门诊次均药品费用增幅▲</v>
       </c>
       <c r="B55" t="str">
         <v>费用控制</v>
@@ -1808,10 +1808,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E55" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F55" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G55" t="str">
         <v>✕</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>↓住院次均费用增幅</v>
+        <v>↓住院次均费用增幅▲</v>
       </c>
       <c r="B56" t="str">
         <v>费用控制</v>
@@ -1834,10 +1834,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E56" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F56" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G56" t="str">
         <v>✕</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>↓住院次均药品费用增幅</v>
+        <v>↓住院次均药品费用增幅▲</v>
       </c>
       <c r="B57" t="str">
         <v>费用控制</v>
@@ -1860,10 +1860,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E57" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F57" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G57" t="str">
         <v>✕</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>↑医院住院医师首次参加医师资格考试通过率</v>
+        <v>↑医院住院医师首次参加医师资格考试通过率▲</v>
       </c>
       <c r="B62" t="str">
         <v>人才培养</v>
@@ -1990,10 +1990,10 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E62" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F62" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G62" t="str">
         <v>✕</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>↑每百名卫生技术人员科研项目经费</v>
+        <v>↑每百名卫生技术人员科研项目经费▲</v>
       </c>
       <c r="B64" t="str">
         <v>学科建设</v>
@@ -2042,10 +2042,10 @@
         <v>医院填报</v>
       </c>
       <c r="E64" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F64" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G64" t="str">
         <v>✕</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>↑门诊患者满意度</v>
+        <v>↑门诊患者满意度▲</v>
       </c>
       <c r="B67" t="str">
         <v>患者满意度</v>
@@ -2120,10 +2120,10 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E67" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F67" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G67" t="str">
         <v>✕</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>↑住院患者满意度</v>
+        <v>↑住院患者满意度▲</v>
       </c>
       <c r="B68" t="str">
         <v>患者满意度</v>
@@ -2146,10 +2146,10 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E68" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F68" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="G68" t="str">
         <v>✕</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>↑门诊中药处方比例</v>
+        <v>↑门诊中药处方比例▲</v>
       </c>
       <c r="B69" t="str">
         <v>功能定位</v>
@@ -2172,7 +2172,7 @@
         <v>医院填报</v>
       </c>
       <c r="E69" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F69" t="str">
         <v>✕</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>↑门诊散装中药饮片和小包装中药饮片处方比例</v>
+        <v>↑门诊散装中药饮片和小包装中药饮片处方比例▲</v>
       </c>
       <c r="B70" t="str">
         <v>功能定位</v>
@@ -2198,7 +2198,7 @@
         <v>医院填报</v>
       </c>
       <c r="E70" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F70" t="str">
         <v>✕</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>↑门诊患者中药饮片使用率</v>
+        <v>↑门诊患者中药饮片使用率▲</v>
       </c>
       <c r="B71" t="str">
         <v>功能定位</v>
@@ -2224,7 +2224,7 @@
         <v>医院填报</v>
       </c>
       <c r="E71" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F71" t="str">
         <v>✕</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>↑出院患者中药饮片使用率</v>
+        <v>↑出院患者中药饮片使用率▲</v>
       </c>
       <c r="B72" t="str">
         <v>功能定位</v>
@@ -2250,7 +2250,7 @@
         <v>中医病案首页</v>
       </c>
       <c r="E72" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F72" t="str">
         <v>✕</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>↑门诊患者使用中医非药物疗法比例</v>
+        <v>↑门诊患者使用中医非药物疗法比例▲</v>
       </c>
       <c r="B73" t="str">
         <v>功能定位</v>
@@ -2276,7 +2276,7 @@
         <v>医院填报</v>
       </c>
       <c r="E73" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F73" t="str">
         <v>✕</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>↑出院患者使用中医非药物疗法比例</v>
+        <v>↑出院患者使用中医非药物疗法比例▲</v>
       </c>
       <c r="B74" t="str">
         <v>功能定位</v>
@@ -2302,7 +2302,7 @@
         <v>中医病案首页</v>
       </c>
       <c r="E74" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F74" t="str">
         <v>✕</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>↑以中医为主治疗的出院患者比例</v>
+        <v>↑以中医为主治疗的出院患者比例▲</v>
       </c>
       <c r="B75" t="str">
         <v>功能定位</v>
@@ -2328,7 +2328,7 @@
         <v>中医病案首页</v>
       </c>
       <c r="E75" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F75" t="str">
         <v>✕</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>↑中药收入占药品收入比例</v>
+        <v>↑中药收入占药品收入比例▲</v>
       </c>
       <c r="B81" t="str">
         <v>收支结构</v>
@@ -2484,7 +2484,7 @@
         <v>财务年报表</v>
       </c>
       <c r="E81" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F81" t="str">
         <v>✕</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>↑中药饮片收入占药品收入比例</v>
+        <v>↑中药饮片收入占药品收入比例▲</v>
       </c>
       <c r="B82" t="str">
         <v>收支结构</v>
@@ -2510,7 +2510,7 @@
         <v>财务年报表</v>
       </c>
       <c r="E82" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F82" t="str">
         <v>✕</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>↑医疗机构中药制剂收入占药品收入比例</v>
+        <v>↑医疗机构中药制剂收入占药品收入比例▲</v>
       </c>
       <c r="B83" t="str">
         <v>收支结构</v>
@@ -2536,7 +2536,7 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E83" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F83" t="str">
         <v>✕</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>↑门诊中医医疗服务项目收入占门诊医疗收入比例</v>
+        <v>↑门诊中医医疗服务项目收入占门诊医疗收入比例▲</v>
       </c>
       <c r="B84" t="str">
         <v>收支结构</v>
@@ -2562,7 +2562,7 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E84" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F84" t="str">
         <v>✕</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>↑住院中医医疗服务项目收入占住院医疗收入比例</v>
+        <v>↑住院中医医疗服务项目收入占住院医疗收入比例▲</v>
       </c>
       <c r="B85" t="str">
         <v>收支结构</v>
@@ -2588,7 +2588,7 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E85" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F85" t="str">
         <v>✕</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>↑中医类别执业医师（含执业助理医师）占执业医师总数比例</v>
+        <v>↑中医类别执业医师（含执业助理医师）占执业医师总数比例▲</v>
       </c>
       <c r="B86" t="str">
         <v>人员结构</v>
@@ -2614,7 +2614,7 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E86" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F86" t="str">
         <v>✕</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>↑每百名卫生技术人员中医药科研项目经费</v>
+        <v>↑每百名卫生技术人员中医药科研项目经费▲</v>
       </c>
       <c r="B89" t="str">
         <v>学科建设</v>
@@ -2692,7 +2692,7 @@
         <v>医院填报</v>
       </c>
       <c r="E89" t="str">
-        <v>✓✕</v>
+        <v>✓</v>
       </c>
       <c r="F89" t="str">
         <v>✕</v>

--- a/outputs/Excel/indef2020Analyze.xlsx
+++ b/outputs/Excel/indef2020Analyze.xlsx
@@ -430,13 +430,13 @@
         <v>病案首页</v>
       </c>
       <c r="E2" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F2" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G2" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H2" t="str">
         <v>百分比（%）</v>
@@ -456,13 +456,13 @@
         <v>病案首页</v>
       </c>
       <c r="E3" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F3" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G3" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H3" t="str">
         <v>百分比（%）</v>
@@ -482,13 +482,13 @@
         <v>病案首页</v>
       </c>
       <c r="E4" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F4" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G4" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H4" t="str">
         <v>百分比（%）</v>
@@ -508,13 +508,13 @@
         <v>病案首页</v>
       </c>
       <c r="E5" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F5" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G5" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H5" t="str">
         <v>百分比（%）</v>
@@ -534,13 +534,13 @@
         <v>病案首页</v>
       </c>
       <c r="E6" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F6" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G6" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H6" t="str">
         <v>百分比（%）</v>
@@ -560,13 +560,13 @@
         <v>医院填报</v>
       </c>
       <c r="E7" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F7" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G7" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H7" t="str">
         <v>DDD</v>
@@ -586,13 +586,13 @@
         <v>省级药品集中采购平台</v>
       </c>
       <c r="E8" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F8" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G8" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="H8" t="str">
         <v>百分比（%）</v>
@@ -612,13 +612,13 @@
         <v>医院填报</v>
       </c>
       <c r="E9" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F9" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G9" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="H9" t="str">
         <v>百分比（%）</v>
@@ -638,13 +638,13 @@
         <v>医院填报</v>
       </c>
       <c r="E10" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F10" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G10" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="H10" t="str">
         <v>百分比（%）</v>
@@ -664,13 +664,13 @@
         <v>医院填报</v>
       </c>
       <c r="E11" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F11" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G11" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="H11" t="str">
         <v>百分比（%）</v>
@@ -690,13 +690,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E12" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F12" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G12" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H12" t="str">
         <v>级别</v>
@@ -716,13 +716,13 @@
         <v>省级卫生健康委</v>
       </c>
       <c r="E13" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F13" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G13" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="H13" t="str">
         <v>百分比（%）</v>
@@ -742,13 +742,13 @@
         <v>病案首页</v>
       </c>
       <c r="E14" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F14" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G14" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H14" t="str">
         <v>天</v>
@@ -768,13 +768,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E15" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F15" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G15" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H15" t="str">
         <v>百分比（%）</v>
@@ -794,13 +794,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E16" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F16" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G16" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H16" t="str">
         <v>百分比（%）</v>
@@ -820,13 +820,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E17" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F17" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G17" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H17" t="str">
         <v>百分比（%）</v>
@@ -846,13 +846,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E18" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F18" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G18" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H18" t="str">
         <v>吨标煤/万元</v>
@@ -872,13 +872,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E19" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F19" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G19" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="H19" t="str">
         <v>百分比（%）</v>
@@ -898,13 +898,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E20" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F20" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G20" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H20" t="str">
         <v>百分比（%）</v>
@@ -924,13 +924,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E21" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F21" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G21" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H21" t="str">
         <v>百分比（%）</v>
@@ -950,13 +950,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E22" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F22" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G22" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H22" t="str">
         <v>百分比（%）</v>
@@ -976,13 +976,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E23" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F23" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G23" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H23" t="str">
         <v>百分比（%）</v>
@@ -1002,13 +1002,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E24" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F24" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G24" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H24" t="str">
         <v>比值（1:X）</v>
@@ -1028,13 +1028,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E25" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F25" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G25" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H25" t="str">
         <v>百分比（%）</v>
@@ -1054,13 +1054,13 @@
         <v>医院填报</v>
       </c>
       <c r="E26" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F26" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G26" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="H26" t="str">
         <v>百分比（%）</v>
@@ -1080,13 +1080,13 @@
         <v>病案首页</v>
       </c>
       <c r="E27" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F27" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G27" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H27" t="str">
         <v>人、天、元、%</v>
@@ -1106,13 +1106,13 @@
         <v>国家公立医院满意度调查平台</v>
       </c>
       <c r="E28" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F28" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G28" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H28" t="str">
         <v>分值</v>
@@ -1132,13 +1132,13 @@
         <v>国家公立医院满意度调查平台</v>
       </c>
       <c r="E29" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F29" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G29" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="H29" t="str">
         <v>分值</v>
@@ -1158,13 +1158,13 @@
         <v>医院填报</v>
       </c>
       <c r="E30" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F30" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G30" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H30" t="str">
         <v>比值（X:1）</v>
@@ -1184,13 +1184,13 @@
         <v>医院填报</v>
       </c>
       <c r="E31" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F31" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G31" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H31" t="str">
         <v>人次</v>
@@ -1210,13 +1210,13 @@
         <v>医院填报</v>
       </c>
       <c r="E32" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F32" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G32" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H32" t="str">
         <v>百分比（%）</v>
@@ -1236,13 +1236,13 @@
         <v>病案首页</v>
       </c>
       <c r="E33" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F33" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G33" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H33" t="str">
         <v>百分比（%）</v>
@@ -1262,13 +1262,13 @@
         <v>医院填报</v>
       </c>
       <c r="E34" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F34" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G34" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H34" t="str">
         <v>百分比（%）</v>
@@ -1288,13 +1288,13 @@
         <v>病案首页</v>
       </c>
       <c r="E35" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F35" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G35" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H35" t="str">
         <v>百分比（%）</v>
@@ -1314,13 +1314,13 @@
         <v>病案首页</v>
       </c>
       <c r="E36" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F36" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G36" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H36" t="str">
         <v>人、天、元、百分比（%）</v>
@@ -1340,13 +1340,13 @@
         <v>医院填报</v>
       </c>
       <c r="E37" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F37" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G37" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H37" t="str">
         <v>百分比（%）</v>
@@ -1366,13 +1366,13 @@
         <v>医院填报</v>
       </c>
       <c r="E38" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F38" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G38" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H38" t="str">
         <v>无</v>
@@ -1392,13 +1392,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E39" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F39" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G39" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H39" t="str">
         <v>百分比（%）</v>
@@ -1418,13 +1418,13 @@
         <v>医院填报</v>
       </c>
       <c r="E40" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F40" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G40" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H40" t="str">
         <v>百分比（%）</v>
@@ -1444,13 +1444,13 @@
         <v>医院填报</v>
       </c>
       <c r="E41" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F41" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G41" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H41" t="str">
         <v>百分比（%）</v>
@@ -1470,13 +1470,13 @@
         <v>医院填报</v>
       </c>
       <c r="E42" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F42" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G42" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H42" t="str">
         <v>百分比（%）</v>
@@ -1496,13 +1496,13 @@
         <v>医院填报</v>
       </c>
       <c r="E43" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F43" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G43" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H43" t="str">
         <v>百分比（%）</v>
@@ -1522,13 +1522,13 @@
         <v>省级招采平台</v>
       </c>
       <c r="E44" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F44" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G44" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H44" t="str">
         <v>百分比（%）</v>
@@ -1548,13 +1548,13 @@
         <v>医院填报</v>
       </c>
       <c r="E45" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F45" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G45" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H45" t="str">
         <v>百分比（%）</v>
@@ -1574,13 +1574,13 @@
         <v>医院填报</v>
       </c>
       <c r="E46" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F46" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G46" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H46" t="str">
         <v>分钟</v>
@@ -1600,13 +1600,13 @@
         <v>医院填报</v>
       </c>
       <c r="E47" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F47" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G47" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H47" t="str">
         <v>床日</v>
@@ -1626,13 +1626,13 @@
         <v>医院填报</v>
       </c>
       <c r="E48" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F48" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G48" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H48" t="str">
         <v>人</v>
@@ -1652,13 +1652,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E49" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F49" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G49" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H49" t="str">
         <v>百分比（%）</v>
@@ -1678,13 +1678,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E50" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F50" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G50" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H50" t="str">
         <v>百分比（%）</v>
@@ -1704,13 +1704,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E51" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F51" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G51" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H51" t="str">
         <v>百分比（%）</v>
@@ -1730,13 +1730,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E52" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F52" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G52" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H52" t="str">
         <v>百分比（%）</v>
@@ -1756,13 +1756,13 @@
         <v>医院填报</v>
       </c>
       <c r="E53" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F53" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G53" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H53" t="str">
         <v>百分比（%）</v>
@@ -1782,13 +1782,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E54" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F54" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G54" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H54" t="str">
         <v>百分比（%）</v>
@@ -1808,13 +1808,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E55" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F55" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G55" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H55" t="str">
         <v>百分比（%）</v>
@@ -1834,13 +1834,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E56" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F56" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G56" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H56" t="str">
         <v>百分比（%）</v>
@@ -1860,13 +1860,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E57" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F57" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G57" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H57" t="str">
         <v>百分比（%）</v>
@@ -1886,13 +1886,13 @@
         <v>医院填报</v>
       </c>
       <c r="E58" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F58" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G58" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H58" t="str">
         <v>无</v>
@@ -1912,13 +1912,13 @@
         <v>医院填报</v>
       </c>
       <c r="E59" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F59" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G59" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H59" t="str">
         <v>无</v>
@@ -1938,13 +1938,13 @@
         <v>医院填报</v>
       </c>
       <c r="E60" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F60" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G60" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H60" t="str">
         <v>百分比（%）</v>
@@ -1964,13 +1964,13 @@
         <v>医院填报</v>
       </c>
       <c r="E61" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F61" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G61" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H61" t="str">
         <v>百分比（%）</v>
@@ -1990,13 +1990,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E62" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F62" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G62" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H62" t="str">
         <v>百分比（%）</v>
@@ -2016,13 +2016,13 @@
         <v>医院填报</v>
       </c>
       <c r="E63" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F63" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G63" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H63" t="str">
         <v>百分比（%）、人、篇、比值（1:X）</v>
@@ -2042,13 +2042,13 @@
         <v>医院填报</v>
       </c>
       <c r="E64" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F64" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G64" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H64" t="str">
         <v>元</v>
@@ -2068,13 +2068,13 @@
         <v>医院填报</v>
       </c>
       <c r="E65" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="F65" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G65" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H65" t="str">
         <v>元</v>
@@ -2094,13 +2094,13 @@
         <v>国家发展改革委</v>
       </c>
       <c r="E66" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F66" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="G66" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H66" t="str">
         <v>无</v>
@@ -2120,13 +2120,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E67" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F67" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G67" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H67" t="str">
         <v>分值</v>
@@ -2146,13 +2146,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E68" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F68" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="G68" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H68" t="str">
         <v>分值</v>
@@ -2172,13 +2172,13 @@
         <v>医院填报</v>
       </c>
       <c r="E69" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F69" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G69" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H69" t="str">
         <v>百分比（%）</v>
@@ -2198,13 +2198,13 @@
         <v>医院填报</v>
       </c>
       <c r="E70" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F70" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G70" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H70" t="str">
         <v>百分比（%）</v>
@@ -2224,13 +2224,13 @@
         <v>医院填报</v>
       </c>
       <c r="E71" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F71" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G71" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H71" t="str">
         <v>百分比（%）</v>
@@ -2250,13 +2250,13 @@
         <v>中医病案首页</v>
       </c>
       <c r="E72" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F72" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G72" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H72" t="str">
         <v>百分比（%）</v>
@@ -2276,13 +2276,13 @@
         <v>医院填报</v>
       </c>
       <c r="E73" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F73" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G73" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H73" t="str">
         <v>百分比（%）</v>
@@ -2302,13 +2302,13 @@
         <v>中医病案首页</v>
       </c>
       <c r="E74" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F74" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G74" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H74" t="str">
         <v>百分比（%）</v>
@@ -2328,13 +2328,13 @@
         <v>中医病案首页</v>
       </c>
       <c r="E75" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F75" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G75" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H75" t="str">
         <v>百分比（%）</v>
@@ -2354,13 +2354,13 @@
         <v>中医病案首页</v>
       </c>
       <c r="E76" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F76" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G76" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H76" t="str">
         <v>百分比（%）</v>
@@ -2380,13 +2380,13 @@
         <v>医院填报</v>
       </c>
       <c r="E77" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F77" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G77" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H77" t="str">
         <v>百分比（%）</v>
@@ -2406,13 +2406,13 @@
         <v>医院填报</v>
       </c>
       <c r="E78" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F78" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G78" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H78" t="str">
         <v>百分比（%）</v>
@@ -2432,13 +2432,13 @@
         <v>医院填报</v>
       </c>
       <c r="E79" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F79" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G79" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H79" t="str">
         <v>人次数</v>
@@ -2458,13 +2458,13 @@
         <v>医院填报</v>
       </c>
       <c r="E80" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F80" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G80" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H80" t="str">
         <v>百分比（%）</v>
@@ -2484,13 +2484,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E81" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F81" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G81" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H81" t="str">
         <v>百分比（%）</v>
@@ -2510,13 +2510,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E82" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F82" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G82" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H82" t="str">
         <v>百分比（%）</v>
@@ -2536,13 +2536,13 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E83" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F83" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G83" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H83" t="str">
         <v>百分比（%）</v>
@@ -2562,13 +2562,13 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E84" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F84" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G84" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H84" t="str">
         <v>百分比（%）</v>
@@ -2588,13 +2588,13 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E85" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F85" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G85" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H85" t="str">
         <v>百分比（%）</v>
@@ -2614,13 +2614,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E86" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F86" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G86" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H86" t="str">
         <v>百分比（%）</v>
@@ -2640,13 +2640,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E87" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F87" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G87" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H87" t="str">
         <v>百分比（%）</v>
@@ -2666,13 +2666,13 @@
         <v>医院填报</v>
       </c>
       <c r="E88" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F88" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G88" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H88" t="str">
         <v>百分比（%）</v>
@@ -2692,13 +2692,13 @@
         <v>医院填报</v>
       </c>
       <c r="E89" t="str">
-        <v>✓</v>
+        <v>++</v>
       </c>
       <c r="F89" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G89" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H89" t="str">
         <v>元</v>
@@ -2718,13 +2718,13 @@
         <v>医院填报</v>
       </c>
       <c r="E90" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F90" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G90" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H90" t="str">
         <v>元</v>
@@ -2744,13 +2744,13 @@
         <v>医院填报</v>
       </c>
       <c r="E91" t="str">
-        <v>✓✕</v>
+        <v>+</v>
       </c>
       <c r="F91" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="G91" t="str">
-        <v>✕</v>
+        <v>-</v>
       </c>
       <c r="H91" t="str">
         <v>元</v>

--- a/outputs/Excel/indef2020Analyze.xlsx
+++ b/outputs/Excel/indef2020Analyze.xlsx
@@ -384,9 +384,9 @@
     <col min="2" max="2" customWidth="1" width="7"/>
     <col min="3" max="3" customWidth="1" width="7"/>
     <col min="4" max="4" customWidth="1" width="13"/>
-    <col min="5" max="5" customWidth="1" width="5"/>
-    <col min="6" max="6" customWidth="1" width="5"/>
-    <col min="7" max="7" customWidth="1" width="5"/>
+    <col min="5" max="5" customWidth="1" width="7"/>
+    <col min="6" max="6" customWidth="1" width="7"/>
+    <col min="7" max="7" customWidth="1" width="7"/>
     <col min="8" max="8" customWidth="1" width="7"/>
   </cols>
   <sheetData>
@@ -404,13 +404,13 @@
         <v>指标来源</v>
       </c>
       <c r="E1" t="str">
-        <v>三中</v>
+        <v>三级中医</v>
       </c>
       <c r="F1" t="str">
-        <v>三综</v>
+        <v>三级综合</v>
       </c>
       <c r="G1" t="str">
-        <v>二综</v>
+        <v>二级综合</v>
       </c>
       <c r="H1" t="str">
         <v>计量单位</v>
@@ -430,13 +430,13 @@
         <v>病案首页</v>
       </c>
       <c r="E2" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F2" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G2" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H2" t="str">
         <v>百分比（%）</v>
@@ -456,13 +456,13 @@
         <v>病案首页</v>
       </c>
       <c r="E3" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F3" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G3" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H3" t="str">
         <v>百分比（%）</v>
@@ -482,13 +482,13 @@
         <v>病案首页</v>
       </c>
       <c r="E4" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F4" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G4" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H4" t="str">
         <v>百分比（%）</v>
@@ -508,13 +508,13 @@
         <v>病案首页</v>
       </c>
       <c r="E5" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F5" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G5" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H5" t="str">
         <v>百分比（%）</v>
@@ -534,13 +534,13 @@
         <v>病案首页</v>
       </c>
       <c r="E6" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F6" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G6" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H6" t="str">
         <v>百分比（%）</v>
@@ -560,13 +560,13 @@
         <v>医院填报</v>
       </c>
       <c r="E7" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F7" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G7" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H7" t="str">
         <v>DDD</v>
@@ -586,13 +586,13 @@
         <v>省级药品集中采购平台</v>
       </c>
       <c r="E8" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F8" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G8" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="H8" t="str">
         <v>百分比（%）</v>
@@ -612,13 +612,13 @@
         <v>医院填报</v>
       </c>
       <c r="E9" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F9" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G9" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="H9" t="str">
         <v>百分比（%）</v>
@@ -638,13 +638,13 @@
         <v>医院填报</v>
       </c>
       <c r="E10" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F10" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G10" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="H10" t="str">
         <v>百分比（%）</v>
@@ -664,13 +664,13 @@
         <v>医院填报</v>
       </c>
       <c r="E11" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F11" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G11" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="H11" t="str">
         <v>百分比（%）</v>
@@ -690,13 +690,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E12" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F12" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G12" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H12" t="str">
         <v>级别</v>
@@ -716,13 +716,13 @@
         <v>省级卫生健康委</v>
       </c>
       <c r="E13" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F13" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G13" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="H13" t="str">
         <v>百分比（%）</v>
@@ -742,13 +742,13 @@
         <v>病案首页</v>
       </c>
       <c r="E14" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F14" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G14" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H14" t="str">
         <v>天</v>
@@ -768,13 +768,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E15" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F15" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G15" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H15" t="str">
         <v>百分比（%）</v>
@@ -794,13 +794,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E16" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F16" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G16" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H16" t="str">
         <v>百分比（%）</v>
@@ -820,13 +820,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E17" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F17" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G17" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H17" t="str">
         <v>百分比（%）</v>
@@ -846,13 +846,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E18" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F18" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G18" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H18" t="str">
         <v>吨标煤/万元</v>
@@ -872,13 +872,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E19" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F19" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G19" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="H19" t="str">
         <v>百分比（%）</v>
@@ -898,13 +898,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E20" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F20" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G20" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H20" t="str">
         <v>百分比（%）</v>
@@ -924,13 +924,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E21" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F21" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G21" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H21" t="str">
         <v>百分比（%）</v>
@@ -950,13 +950,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E22" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F22" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G22" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H22" t="str">
         <v>百分比（%）</v>
@@ -976,13 +976,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E23" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F23" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G23" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H23" t="str">
         <v>百分比（%）</v>
@@ -1002,13 +1002,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E24" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F24" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G24" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H24" t="str">
         <v>比值（1:X）</v>
@@ -1028,13 +1028,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E25" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F25" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G25" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H25" t="str">
         <v>百分比（%）</v>
@@ -1054,13 +1054,13 @@
         <v>医院填报</v>
       </c>
       <c r="E26" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F26" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G26" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="H26" t="str">
         <v>百分比（%）</v>
@@ -1080,13 +1080,13 @@
         <v>病案首页</v>
       </c>
       <c r="E27" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F27" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G27" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H27" t="str">
         <v>人、天、元、%</v>
@@ -1106,13 +1106,13 @@
         <v>国家公立医院满意度调查平台</v>
       </c>
       <c r="E28" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F28" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G28" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H28" t="str">
         <v>分值</v>
@@ -1132,13 +1132,13 @@
         <v>国家公立医院满意度调查平台</v>
       </c>
       <c r="E29" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F29" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G29" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="H29" t="str">
         <v>分值</v>
@@ -1158,13 +1158,13 @@
         <v>医院填报</v>
       </c>
       <c r="E30" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F30" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G30" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H30" t="str">
         <v>比值（X:1）</v>
@@ -1184,13 +1184,13 @@
         <v>医院填报</v>
       </c>
       <c r="E31" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F31" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G31" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H31" t="str">
         <v>人次</v>
@@ -1210,13 +1210,13 @@
         <v>医院填报</v>
       </c>
       <c r="E32" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F32" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G32" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H32" t="str">
         <v>百分比（%）</v>
@@ -1236,13 +1236,13 @@
         <v>病案首页</v>
       </c>
       <c r="E33" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F33" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G33" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H33" t="str">
         <v>百分比（%）</v>
@@ -1262,13 +1262,13 @@
         <v>医院填报</v>
       </c>
       <c r="E34" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F34" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G34" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H34" t="str">
         <v>百分比（%）</v>
@@ -1288,13 +1288,13 @@
         <v>病案首页</v>
       </c>
       <c r="E35" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F35" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G35" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H35" t="str">
         <v>百分比（%）</v>
@@ -1314,13 +1314,13 @@
         <v>病案首页</v>
       </c>
       <c r="E36" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F36" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G36" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H36" t="str">
         <v>人、天、元、百分比（%）</v>
@@ -1340,13 +1340,13 @@
         <v>医院填报</v>
       </c>
       <c r="E37" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F37" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G37" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H37" t="str">
         <v>百分比（%）</v>
@@ -1366,13 +1366,13 @@
         <v>医院填报</v>
       </c>
       <c r="E38" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F38" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G38" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H38" t="str">
         <v>无</v>
@@ -1392,13 +1392,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E39" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F39" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G39" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H39" t="str">
         <v>百分比（%）</v>
@@ -1418,13 +1418,13 @@
         <v>医院填报</v>
       </c>
       <c r="E40" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F40" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G40" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H40" t="str">
         <v>百分比（%）</v>
@@ -1444,13 +1444,13 @@
         <v>医院填报</v>
       </c>
       <c r="E41" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F41" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G41" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H41" t="str">
         <v>百分比（%）</v>
@@ -1470,13 +1470,13 @@
         <v>医院填报</v>
       </c>
       <c r="E42" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F42" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G42" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H42" t="str">
         <v>百分比（%）</v>
@@ -1496,13 +1496,13 @@
         <v>医院填报</v>
       </c>
       <c r="E43" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F43" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G43" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H43" t="str">
         <v>百分比（%）</v>
@@ -1522,13 +1522,13 @@
         <v>省级招采平台</v>
       </c>
       <c r="E44" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F44" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G44" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H44" t="str">
         <v>百分比（%）</v>
@@ -1548,13 +1548,13 @@
         <v>医院填报</v>
       </c>
       <c r="E45" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F45" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G45" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H45" t="str">
         <v>百分比（%）</v>
@@ -1574,13 +1574,13 @@
         <v>医院填报</v>
       </c>
       <c r="E46" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F46" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G46" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H46" t="str">
         <v>分钟</v>
@@ -1600,13 +1600,13 @@
         <v>医院填报</v>
       </c>
       <c r="E47" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F47" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G47" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H47" t="str">
         <v>床日</v>
@@ -1626,13 +1626,13 @@
         <v>医院填报</v>
       </c>
       <c r="E48" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F48" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G48" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H48" t="str">
         <v>人</v>
@@ -1652,13 +1652,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E49" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F49" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G49" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H49" t="str">
         <v>百分比（%）</v>
@@ -1678,13 +1678,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E50" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F50" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G50" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H50" t="str">
         <v>百分比（%）</v>
@@ -1704,13 +1704,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E51" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F51" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G51" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H51" t="str">
         <v>百分比（%）</v>
@@ -1730,13 +1730,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E52" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F52" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G52" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H52" t="str">
         <v>百分比（%）</v>
@@ -1756,13 +1756,13 @@
         <v>医院填报</v>
       </c>
       <c r="E53" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F53" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G53" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H53" t="str">
         <v>百分比（%）</v>
@@ -1782,13 +1782,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E54" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F54" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G54" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H54" t="str">
         <v>百分比（%）</v>
@@ -1808,13 +1808,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E55" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F55" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G55" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H55" t="str">
         <v>百分比（%）</v>
@@ -1834,13 +1834,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E56" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F56" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G56" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H56" t="str">
         <v>百分比（%）</v>
@@ -1860,13 +1860,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E57" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F57" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G57" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H57" t="str">
         <v>百分比（%）</v>
@@ -1886,13 +1886,13 @@
         <v>医院填报</v>
       </c>
       <c r="E58" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F58" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G58" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H58" t="str">
         <v>无</v>
@@ -1912,13 +1912,13 @@
         <v>医院填报</v>
       </c>
       <c r="E59" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F59" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G59" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H59" t="str">
         <v>无</v>
@@ -1938,13 +1938,13 @@
         <v>医院填报</v>
       </c>
       <c r="E60" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F60" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G60" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H60" t="str">
         <v>百分比（%）</v>
@@ -1964,13 +1964,13 @@
         <v>医院填报</v>
       </c>
       <c r="E61" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F61" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G61" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H61" t="str">
         <v>百分比（%）</v>
@@ -1990,13 +1990,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E62" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F62" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G62" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H62" t="str">
         <v>百分比（%）</v>
@@ -2016,13 +2016,13 @@
         <v>医院填报</v>
       </c>
       <c r="E63" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F63" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G63" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H63" t="str">
         <v>百分比（%）、人、篇、比值（1:X）</v>
@@ -2042,13 +2042,13 @@
         <v>医院填报</v>
       </c>
       <c r="E64" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F64" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G64" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H64" t="str">
         <v>元</v>
@@ -2068,13 +2068,13 @@
         <v>医院填报</v>
       </c>
       <c r="E65" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="F65" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G65" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H65" t="str">
         <v>元</v>
@@ -2094,13 +2094,13 @@
         <v>国家发展改革委</v>
       </c>
       <c r="E66" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F66" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="G66" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H66" t="str">
         <v>无</v>
@@ -2120,13 +2120,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E67" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F67" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G67" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H67" t="str">
         <v>分值</v>
@@ -2146,13 +2146,13 @@
         <v>国家卫生健康委</v>
       </c>
       <c r="E68" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F68" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="G68" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H68" t="str">
         <v>分值</v>
@@ -2172,13 +2172,13 @@
         <v>医院填报</v>
       </c>
       <c r="E69" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F69" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G69" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H69" t="str">
         <v>百分比（%）</v>
@@ -2198,13 +2198,13 @@
         <v>医院填报</v>
       </c>
       <c r="E70" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F70" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G70" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H70" t="str">
         <v>百分比（%）</v>
@@ -2224,13 +2224,13 @@
         <v>医院填报</v>
       </c>
       <c r="E71" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F71" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G71" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H71" t="str">
         <v>百分比（%）</v>
@@ -2250,13 +2250,13 @@
         <v>中医病案首页</v>
       </c>
       <c r="E72" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F72" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G72" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H72" t="str">
         <v>百分比（%）</v>
@@ -2276,13 +2276,13 @@
         <v>医院填报</v>
       </c>
       <c r="E73" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F73" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G73" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H73" t="str">
         <v>百分比（%）</v>
@@ -2302,13 +2302,13 @@
         <v>中医病案首页</v>
       </c>
       <c r="E74" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F74" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G74" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H74" t="str">
         <v>百分比（%）</v>
@@ -2328,13 +2328,13 @@
         <v>中医病案首页</v>
       </c>
       <c r="E75" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F75" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G75" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H75" t="str">
         <v>百分比（%）</v>
@@ -2354,13 +2354,13 @@
         <v>中医病案首页</v>
       </c>
       <c r="E76" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F76" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G76" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H76" t="str">
         <v>百分比（%）</v>
@@ -2380,13 +2380,13 @@
         <v>医院填报</v>
       </c>
       <c r="E77" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F77" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G77" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H77" t="str">
         <v>百分比（%）</v>
@@ -2406,13 +2406,13 @@
         <v>医院填报</v>
       </c>
       <c r="E78" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F78" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G78" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H78" t="str">
         <v>百分比（%）</v>
@@ -2432,13 +2432,13 @@
         <v>医院填报</v>
       </c>
       <c r="E79" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F79" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G79" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H79" t="str">
         <v>人次数</v>
@@ -2458,13 +2458,13 @@
         <v>医院填报</v>
       </c>
       <c r="E80" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F80" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G80" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H80" t="str">
         <v>百分比（%）</v>
@@ -2484,13 +2484,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E81" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F81" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G81" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H81" t="str">
         <v>百分比（%）</v>
@@ -2510,13 +2510,13 @@
         <v>财务年报表</v>
       </c>
       <c r="E82" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F82" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G82" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H82" t="str">
         <v>百分比（%）</v>
@@ -2536,13 +2536,13 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E83" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F83" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G83" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H83" t="str">
         <v>百分比（%）</v>
@@ -2562,13 +2562,13 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E84" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F84" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G84" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H84" t="str">
         <v>百分比（%）</v>
@@ -2588,13 +2588,13 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E85" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F85" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G85" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H85" t="str">
         <v>百分比（%）</v>
@@ -2614,13 +2614,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E86" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F86" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G86" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H86" t="str">
         <v>百分比（%）</v>
@@ -2640,13 +2640,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E87" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F87" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G87" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H87" t="str">
         <v>百分比（%）</v>
@@ -2666,13 +2666,13 @@
         <v>医院填报</v>
       </c>
       <c r="E88" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F88" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G88" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H88" t="str">
         <v>百分比（%）</v>
@@ -2692,13 +2692,13 @@
         <v>医院填报</v>
       </c>
       <c r="E89" t="str">
-        <v>++</v>
+        <v>监</v>
       </c>
       <c r="F89" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G89" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H89" t="str">
         <v>元</v>
@@ -2718,13 +2718,13 @@
         <v>医院填报</v>
       </c>
       <c r="E90" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F90" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G90" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H90" t="str">
         <v>元</v>
@@ -2744,13 +2744,13 @@
         <v>医院填报</v>
       </c>
       <c r="E91" t="str">
-        <v>+</v>
+        <v>考</v>
       </c>
       <c r="F91" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="G91" t="str">
-        <v>-</v>
+        <v>无</v>
       </c>
       <c r="H91" t="str">
         <v>元</v>
